--- a/Dipak/Assignment.xlsx
+++ b/Dipak/Assignment.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment1" sheetId="3" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Assignment3" sheetId="1" r:id="rId3"/>
     <sheet name="Assignment4" sheetId="4" r:id="rId4"/>
     <sheet name="Assignment5" sheetId="5" r:id="rId5"/>
+    <sheet name="Assignment6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="277">
   <si>
     <t>Binary</t>
   </si>
@@ -1351,6 +1352,47 @@
   </si>
   <si>
     <t>In fibonacci series, next number is the sum of previous two numbers for example 0, 1, 1, 2, 3, 5, 8, 13, 21, 34, 55 etc. The first two numbers of fibonacci series are 0 and 1.</t>
+  </si>
+  <si>
+    <t>7. Difference  between StringBuffer and StringBuilder</t>
+  </si>
+  <si>
+    <t>StringBuffer</t>
+  </si>
+  <si>
+    <t>StringBuilder</t>
+  </si>
+  <si>
+    <t>StringBuffer is synchronized i.e. thread safe. It means two threads can't call the methods of StringBuffer simultaneously.</t>
+  </si>
+  <si>
+    <t>StringBuilder is non-synchronized i.e. not thread safe. It means two threads can call the methods of StringBuilder simultaneously.</t>
+  </si>
+  <si>
+    <t>StringBuffer is less efficient than StringBuilder.</t>
+  </si>
+  <si>
+    <t>StringBuilder is more efficient than StringBuffer.</t>
+  </si>
+  <si>
+    <t>public class BufferTest{  
+    public static void main(String[] args){  
+        StringBuffer buffer=new StringBuffer("hello");  
+        buffer.append("java");  
+        System.out.println(buffer);  
+    } 
+}
+Output : hellojava</t>
+  </si>
+  <si>
+    <t>public class BuilderTest{  
+    public static void main(String[] args){  
+        StringBuilder builder=new StringBuilder("hello");  
+        builder.append("java");  
+        System.out.println(builder);  
+    }  
+}
+Output : hellojava</t>
   </si>
 </sst>
 </file>
@@ -1419,7 +1461,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1564,12 +1606,153 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1651,6 +1834,88 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3707,30 +3972,30 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="J45:L45"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="F55:H55"/>
+    <mergeCell ref="J55:L55"/>
     <mergeCell ref="B64:D64"/>
     <mergeCell ref="F64:H64"/>
     <mergeCell ref="J64:L64"/>
     <mergeCell ref="B73:D73"/>
     <mergeCell ref="F73:H73"/>
     <mergeCell ref="J73:L73"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="J45:L45"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="F55:H55"/>
-    <mergeCell ref="J55:L55"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="J19:L19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4086,7 +4351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E28"/>
     </sheetView>
   </sheetViews>
@@ -4205,4 +4470,466 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11:K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="32" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="52">
+        <v>1</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="52">
+        <v>1</v>
+      </c>
+      <c r="L5" s="43" t="s">
+        <v>272</v>
+      </c>
+      <c r="M5" s="44"/>
+      <c r="N5" s="44"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="44"/>
+      <c r="Q5" s="44"/>
+      <c r="R5" s="44"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="53"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="50"/>
+      <c r="N6" s="50"/>
+      <c r="O6" s="50"/>
+      <c r="P6" s="50"/>
+      <c r="Q6" s="50"/>
+      <c r="R6" s="50"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="55"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="57"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="30"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="52">
+        <v>2</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>273</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="52">
+        <v>2</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
+      <c r="O8" s="38"/>
+      <c r="P8" s="38"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="38"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="53"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="30"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="55"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="30"/>
+      <c r="U10" s="30"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="52">
+        <v>3</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>275</v>
+      </c>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="52">
+        <v>3</v>
+      </c>
+      <c r="L11" s="43" t="s">
+        <v>276</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="39"/>
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="47"/>
+      <c r="H12" s="47"/>
+      <c r="I12" s="47"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="35"/>
+      <c r="O12" s="35"/>
+      <c r="P12" s="35"/>
+      <c r="Q12" s="35"/>
+      <c r="R12" s="35"/>
+      <c r="S12" s="36"/>
+      <c r="T12" s="30"/>
+      <c r="U12" s="30"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="54"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="47"/>
+      <c r="G13" s="47"/>
+      <c r="H13" s="47"/>
+      <c r="I13" s="47"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="30"/>
+      <c r="U13" s="30"/>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="54"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="35"/>
+      <c r="O14" s="35"/>
+      <c r="P14" s="35"/>
+      <c r="Q14" s="35"/>
+      <c r="R14" s="35"/>
+      <c r="S14" s="36"/>
+      <c r="T14" s="30"/>
+      <c r="U14" s="30"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="54"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="30"/>
+      <c r="U15" s="30"/>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="54"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="35"/>
+      <c r="P16" s="35"/>
+      <c r="Q16" s="35"/>
+      <c r="R16" s="35"/>
+      <c r="S16" s="36"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B17" s="54"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="35"/>
+      <c r="P17" s="35"/>
+      <c r="Q17" s="35"/>
+      <c r="R17" s="35"/>
+      <c r="S17" s="36"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="48"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
+      <c r="R18" s="35"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B19" s="54"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="48"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="36"/>
+      <c r="T19" s="30"/>
+      <c r="U19" s="30"/>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B20" s="54"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="30"/>
+      <c r="U20" s="30"/>
+    </row>
+    <row r="21" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B21" s="53"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="53"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B7:S7"/>
+    <mergeCell ref="B10:S10"/>
+    <mergeCell ref="C8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:S9"/>
+    <mergeCell ref="C11:J21"/>
+    <mergeCell ref="B11:B21"/>
+    <mergeCell ref="K11:K21"/>
+    <mergeCell ref="L11:S21"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="K4:S4"/>
+    <mergeCell ref="C5:J6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:S6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>